--- a/biology/Zoologie/Chevesne/Chevesne.xlsx
+++ b/biology/Zoologie/Chevesne/Chevesne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Squalius cephalus
 Le chevesne ou chevaine commun (Squalius cephalus) est une espèce de poissons d'eau douce très fréquente en Europe. En France, il est répandu sur tout le territoire hormis la Corse et le Finistère. On le rencontre principalement dans les rivières de deuxième catégorie ainsi que les zones inférieures des rivières de première catégorie. On peut aussi le retrouver jusque dans les fleuves (Rhône...) . On le classe souvent dans le groupe de poissons dits blancs (chevesne, vandoise, barbeau, gardon, ablette...).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'adulte, la Bouche est largement fendue et ses lèvres sont épaisses. Ses Écailles sont  épaisses et nombreuses, et  recouvrent tout son corps. Il a  un dos  brun à verdâtre, avec des reflets moirés. Tandis que les flancs sont argentés et le ventre quant à lui est blanc. Les nageoires pelviennes et anales virent sur le rouge vif. Il fait généralement de 20 à 40 centimètres, mais il peut arriver exceptionnellement de sortir des spécimens de 60 à 70 centimètres pour un poids de 5 à 6 kilogrammes.
 le corps est épais et robuste, presque cylindrique, de forme nettement allongée, et couvert de grosses écailles. Il est caractérisé par une tête à front plat avec une bouche large. 
@@ -546,12 +560,14 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">l'habitat du chevesne est très diversifié.On le rencontre dans les rivières ou la truite règne en maître ou il est d'ailleurs considéré comme un indésirable. En plus on le trouve  même dans les eaux très calmes comme certaines retenues d'eau.
 Le chevesne adulte vit généralement entre deux eaux ou près du fond. En été il est souvent plus près de la surface et proche des berges à la recherche d'insectes alors qu'en hiver il occupe les fosses les plus profondes.
 Une étude radiotélémétrique de chevesnes adultes a montré qu'en milieux lotiques (généralement « caractérisés par une forte hétérogénéité spatio-temporelle liée surtout aux fluctuations de débit, le couvert (débris ligneux, excavations sous-berges, blocs) » les zones d'abri sont une composante-clé expliquant la répartition des poissons ; elles sont à la fois des lieux de protection contre les prédateurs (poissons, oiseaux, mammifères, pêche), des lieux permettant l'isolation visuelle et limitant la compétition, et des abris hydrauliques où le poisson économise son énergie.
-Les chevesnes (et leurs "assemblages piscicoles" vont utiliser ces abris en fonction de compromis (en tant qu'abri, mais aussi selon leur offre en nourriture) et de manière différente selon le moment du cycle nycthéméral et saisonnier, ou « lors des perturbations hydrauliques majeures ». La force du courant, la pression de prédation et les stratégies d'histoire de vie peuvent aussi réorienter ce « compromis »[1].  
+Les chevesnes (et leurs "assemblages piscicoles" vont utiliser ces abris en fonction de compromis (en tant qu'abri, mais aussi selon leur offre en nourriture) et de manière différente selon le moment du cycle nycthéméral et saisonnier, ou « lors des perturbations hydrauliques majeures ». La force du courant, la pression de prédation et les stratégies d'histoire de vie peuvent aussi réorienter ce « compromis ».  
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce grégaire, se déplaçant en bancs, souvent composés d'individus de même taille. Mais les gros spécimens restent souvent solitaire.
-Son mode de vie évolue au cours de sa croissance et selon les ressources du milieu où il se développe (« En effet, de régime omnivore, l’espèce est pélagique au stade juvénile puis à dominante benthique au stade adulte » [2], ce qui en fait un animal intéressant pour l'étude de certaines contaminations environnementales. Par exemple une étude faite en aval du site nucléaire de Marcoule a montré que chez le chevesne adulte, la teneur de sa chair en radionucléides est fortement corrélée avec celle du sédiment[2]).
+Son mode de vie évolue au cours de sa croissance et selon les ressources du milieu où il se développe (« En effet, de régime omnivore, l’espèce est pélagique au stade juvénile puis à dominante benthique au stade adulte » , ce qui en fait un animal intéressant pour l'étude de certaines contaminations environnementales. Par exemple une étude faite en aval du site nucléaire de Marcoule a montré que chez le chevesne adulte, la teneur de sa chair en radionucléides est fortement corrélée avec celle du sédiment).
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson est omnivore. Il est réputé pour  manger pratiquement tout : vers, larves, crustacés, mollusques, insectes, mousses de rivières, fruits, pain et petits poissons.
 </t>
@@ -643,7 +663,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le frai a lieu d'avril à juin (en fonction de la température de l'eau) sur des eaux peu profondes et à fond de graviers. Les femelles vont pondre environ 50 000 œufs par kilogramme de leur poids. Parfois, il peut arriver que le chevesne s’hybride avec d’autres poissons.
 Le mâle a alors à cette époque la tête couverte de petits points blancs.
@@ -675,7 +697,9 @@
           <t>Intérêt halieutique professionnel et de subsistance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson d'intérêt économique vivrier dans bon nombre de pays européens (Autriche, Pologne, Pays de l'Est, etc.).
 </t>
@@ -706,7 +730,9 @@
           <t>Intérêt halieutique de loisir</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Parce qu'il est omnivore et actif toute l'année, ce poisson peut se pêcher de différentes façons:
 De manière traditionnelle « au coup »,
@@ -743,7 +769,9 @@
           <t>Intérêt culinaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis quelques décennies, dans les pays ayant perdu une partie de leur savoir-faire culinaire et tournés vers une alimentation industrialisée, le chevesne possède un intérêt gastronomique limité.
 À contrario, d'autres pays le considèrent comme nourriture potentielle où il est largement représenté dans la gastronomie locale.
@@ -777,9 +805,11 @@
           <t>Risques sanitaires, écotoxicologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une eau polluée, le chevesne fait partie des poissons légèrement bio-accumulateurs. En raison de sa propension à bioconcentrer les métaux lourds, certains métalloïdes ou des polluants peu biodégradables tels que les PCB, furanes ou dioxines, il peut dans certains cours d'eau pollués être interdit de pêche, de détention et de toute commercialisation[3].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une eau polluée, le chevesne fait partie des poissons légèrement bio-accumulateurs. En raison de sa propension à bioconcentrer les métaux lourds, certains métalloïdes ou des polluants peu biodégradables tels que les PCB, furanes ou dioxines, il peut dans certains cours d'eau pollués être interdit de pêche, de détention et de toute commercialisation.
 </t>
         </is>
       </c>
